--- a/runs/run750/NotionalETEOutput750.xlsx
+++ b/runs/run750/NotionalETEOutput750.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_400.MISSILE_HIGHWIND2_400</t>
+    <t>MISSILE_ANGERMAX2_93.MISSILE_ANGERMAX2_93</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1572.99914789305</v>
+        <v>-1565.779898473681</v>
       </c>
       <c r="J2">
-        <v>1926.791577481168</v>
+        <v>1978.355248901292</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1500.233560358228</v>
+        <v>-1428.502890130732</v>
       </c>
       <c r="J3">
-        <v>1916.419967961463</v>
+        <v>1927.794861630172</v>
       </c>
       <c r="K3">
-        <v>295.0390463399789</v>
+        <v>314.2555264366</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1464.367974483014</v>
+        <v>-1381.390197515367</v>
       </c>
       <c r="J4">
-        <v>1819.421414933477</v>
+        <v>1991.519088545184</v>
       </c>
       <c r="K4">
-        <v>597.9264286724979</v>
+        <v>608.1833404403238</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1367.44282176807</v>
+        <v>-1357.975384767919</v>
       </c>
       <c r="J5">
-        <v>1768.713810676714</v>
+        <v>1769.386623257038</v>
       </c>
       <c r="K5">
-        <v>822.7139527821117</v>
+        <v>845.3606008391556</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1360.856868035817</v>
+        <v>-1371.251573457666</v>
       </c>
       <c r="J6">
-        <v>1729.880378263591</v>
+        <v>1739.37661756969</v>
       </c>
       <c r="K6">
-        <v>1093.948330443122</v>
+        <v>1167.675197704929</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1349.265878718667</v>
+        <v>-1312.273042646965</v>
       </c>
       <c r="J7">
-        <v>1696.281092988208</v>
+        <v>1736.966396753</v>
       </c>
       <c r="K7">
-        <v>1420.124277948806</v>
+        <v>1389.065857202041</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1343.141950579969</v>
+        <v>-1370.324967457155</v>
       </c>
       <c r="J8">
-        <v>1660.532290095641</v>
+        <v>1640.393159866806</v>
       </c>
       <c r="K8">
-        <v>1571.041876602671</v>
+        <v>1516.999953655997</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.02539675520978</v>
+        <v>-99.09551531221062</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1337.485396298205</v>
+        <v>-1303.22889021274</v>
       </c>
       <c r="J9">
-        <v>1583.418170612765</v>
+        <v>1659.013611294828</v>
       </c>
       <c r="K9">
-        <v>1720.660229914203</v>
+        <v>1884.425099288403</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>211.4491565387167</v>
+        <v>214.2065415045343</v>
       </c>
       <c r="G10">
-        <v>-80.91497276950365</v>
+        <v>-79.84906482861932</v>
       </c>
       <c r="H10">
-        <v>820.4335268874285</v>
+        <v>853.2478951000614</v>
       </c>
       <c r="I10">
-        <v>-1222.3162038155</v>
+        <v>-1250.014359674349</v>
       </c>
       <c r="J10">
-        <v>1588.619315267878</v>
+        <v>1577.781487479487</v>
       </c>
       <c r="K10">
-        <v>2080.051028668662</v>
+        <v>1969.624552391647</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.8058378364988</v>
+        <v>163.1433138526651</v>
       </c>
       <c r="G11">
-        <v>-65.39824990436955</v>
+        <v>-64.45929209550114</v>
       </c>
       <c r="H11">
-        <v>1008.663136197416</v>
+        <v>1033.673664879898</v>
       </c>
       <c r="I11">
-        <v>-1215.026969471098</v>
+        <v>-1155.568294645331</v>
       </c>
       <c r="J11">
-        <v>1503.749865483115</v>
+        <v>1574.650261448713</v>
       </c>
       <c r="K11">
-        <v>2207.304379122006</v>
+        <v>2230.016949250549</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.640070015023</v>
+        <v>134.2117069234261</v>
       </c>
       <c r="G12">
-        <v>-52.38407306938651</v>
+        <v>-49.25290084242766</v>
       </c>
       <c r="H12">
-        <v>1172.103121884151</v>
+        <v>1224.202511109318</v>
       </c>
       <c r="I12">
-        <v>-1149.488731555264</v>
+        <v>-1131.030651565528</v>
       </c>
       <c r="J12">
-        <v>1472.490000193037</v>
+        <v>1450.519291408993</v>
       </c>
       <c r="K12">
-        <v>2296.7172595814</v>
+        <v>2294.557350830381</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>117.0478187107094</v>
+        <v>123.1186902530195</v>
       </c>
       <c r="G13">
-        <v>-35.57784778333686</v>
+        <v>-34.45173860762093</v>
       </c>
       <c r="H13">
-        <v>1253.003785000124</v>
+        <v>1234.232530751427</v>
       </c>
       <c r="I13">
-        <v>-1151.54468789338</v>
+        <v>-1176.360084549267</v>
       </c>
       <c r="J13">
-        <v>1463.405962095818</v>
+        <v>1450.622324169788</v>
       </c>
       <c r="K13">
-        <v>2599.031014627609</v>
+        <v>2541.766462904125</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.396497283682</v>
+        <v>109.4071154635622</v>
       </c>
       <c r="G14">
-        <v>-16.60004261892585</v>
+        <v>-18.0545607966766</v>
       </c>
       <c r="H14">
-        <v>1324.034459308374</v>
+        <v>1275.550241716773</v>
       </c>
       <c r="I14">
-        <v>-1056.173677299948</v>
+        <v>-1114.092045715939</v>
       </c>
       <c r="J14">
-        <v>1478.528516265298</v>
+        <v>1471.563201777943</v>
       </c>
       <c r="K14">
-        <v>2552.231908412917</v>
+        <v>2711.670660138035</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.34907897666515</v>
+        <v>95.38267120259523</v>
       </c>
       <c r="G15">
-        <v>-0.8872806413895868</v>
+        <v>-0.9186238271249481</v>
       </c>
       <c r="H15">
-        <v>1352.746841074247</v>
+        <v>1356.549720964736</v>
       </c>
       <c r="I15">
-        <v>-1003.073552898553</v>
+        <v>-1094.068590390906</v>
       </c>
       <c r="J15">
-        <v>1431.015572713855</v>
+        <v>1388.575545493965</v>
       </c>
       <c r="K15">
-        <v>2779.739964410144</v>
+        <v>2812.254740854903</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.67575982763901</v>
+        <v>88.1485902799469</v>
       </c>
       <c r="G16">
-        <v>15.99677075440359</v>
+        <v>15.13134132851614</v>
       </c>
       <c r="H16">
-        <v>1448.71436206994</v>
+        <v>1375.69915265798</v>
       </c>
       <c r="I16">
-        <v>-1008.074692055891</v>
+        <v>-1009.444143899012</v>
       </c>
       <c r="J16">
-        <v>1337.552151182262</v>
+        <v>1345.255181619589</v>
       </c>
       <c r="K16">
-        <v>2943.904677758098</v>
+        <v>2974.643695454979</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.7284769606318</v>
+        <v>90.25794555515293</v>
       </c>
       <c r="G17">
-        <v>32.84064039714198</v>
+        <v>32.63116028422011</v>
       </c>
       <c r="H17">
-        <v>1517.866016287404</v>
+        <v>1499.736927472869</v>
       </c>
       <c r="I17">
-        <v>-972.1860448486357</v>
+        <v>-925.5756237947352</v>
       </c>
       <c r="J17">
-        <v>1271.403486522677</v>
+        <v>1246.802262281274</v>
       </c>
       <c r="K17">
-        <v>2833.1181199293</v>
+        <v>3060.872117603703</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.66770607555263</v>
+        <v>80.80745491458165</v>
       </c>
       <c r="G18">
-        <v>47.85742366438373</v>
+        <v>50.81705208599995</v>
       </c>
       <c r="H18">
-        <v>1477.702309771996</v>
+        <v>1556.352033114652</v>
       </c>
       <c r="I18">
-        <v>-927.876972617352</v>
+        <v>-919.26276923988</v>
       </c>
       <c r="J18">
-        <v>1164.470159658258</v>
+        <v>1227.247182571814</v>
       </c>
       <c r="K18">
-        <v>3180.944338647556</v>
+        <v>3055.838465214684</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.21623756731398</v>
+        <v>80.00556731389871</v>
       </c>
       <c r="G19">
-        <v>62.56024430346685</v>
+        <v>62.10887397357006</v>
       </c>
       <c r="H19">
-        <v>1509.709448217036</v>
+        <v>1564.347915272621</v>
       </c>
       <c r="I19">
-        <v>-842.3476604204494</v>
+        <v>-849.9222150694077</v>
       </c>
       <c r="J19">
-        <v>1179.496795063691</v>
+        <v>1126.394638308493</v>
       </c>
       <c r="K19">
-        <v>3027.605510059088</v>
+        <v>2953.229373174551</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.70844522409665</v>
+        <v>76.23413447603139</v>
       </c>
       <c r="G20">
-        <v>81.4228959574607</v>
+        <v>78.15518918232812</v>
       </c>
       <c r="H20">
-        <v>1533.173578851114</v>
+        <v>1631.08418639832</v>
       </c>
       <c r="I20">
-        <v>-867.9023975303696</v>
+        <v>-857.2233880023642</v>
       </c>
       <c r="J20">
-        <v>1114.041147992853</v>
+        <v>1174.163262754286</v>
       </c>
       <c r="K20">
-        <v>3245.640308156774</v>
+        <v>3249.748957194872</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.16675317451825</v>
+        <v>72.34532704114612</v>
       </c>
       <c r="G21">
-        <v>95.22767828647747</v>
+        <v>97.22273959885575</v>
       </c>
       <c r="H21">
-        <v>1565.861103352054</v>
+        <v>1551.89134007664</v>
       </c>
       <c r="I21">
-        <v>-781.453940912907</v>
+        <v>-827.5318378859042</v>
       </c>
       <c r="J21">
-        <v>1081.426376207838</v>
+        <v>1046.210966655544</v>
       </c>
       <c r="K21">
-        <v>3197.483743121039</v>
+        <v>3280.282458334333</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.58031384257734</v>
+        <v>67.99047055062397</v>
       </c>
       <c r="G22">
-        <v>118.5075239194634</v>
+        <v>119.156588136796</v>
       </c>
       <c r="H22">
-        <v>1576.04645389384</v>
+        <v>1565.44259370236</v>
       </c>
       <c r="I22">
-        <v>-744.1208748642869</v>
+        <v>-745.3726528562713</v>
       </c>
       <c r="J22">
-        <v>992.8902083706629</v>
+        <v>1018.363553629149</v>
       </c>
       <c r="K22">
-        <v>3262.481119220591</v>
+        <v>3282.516035192928</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.94796306752083</v>
+        <v>65.6528035548907</v>
       </c>
       <c r="G23">
-        <v>131.7700798583814</v>
+        <v>133.8662270547745</v>
       </c>
       <c r="H23">
-        <v>1714.533678484183</v>
+        <v>1566.42580306336</v>
       </c>
       <c r="I23">
-        <v>-681.9263815085617</v>
+        <v>-681.3193342739462</v>
       </c>
       <c r="J23">
-        <v>932.7453101225879</v>
+        <v>1007.848939833617</v>
       </c>
       <c r="K23">
-        <v>3293.068404906128</v>
+        <v>3105.752639342115</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.61246310558208</v>
+        <v>66.36383516752288</v>
       </c>
       <c r="G24">
-        <v>152.4748495775793</v>
+        <v>145.3942224214842</v>
       </c>
       <c r="H24">
-        <v>1651.456238479195</v>
+        <v>1594.961404141887</v>
       </c>
       <c r="I24">
-        <v>-631.3089473392297</v>
+        <v>-631.9992484433698</v>
       </c>
       <c r="J24">
-        <v>885.6217430032543</v>
+        <v>935.3802870965726</v>
       </c>
       <c r="K24">
-        <v>3255.11739224759</v>
+        <v>3246.848439699329</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.44319074483001</v>
+        <v>62.3378909297405</v>
       </c>
       <c r="G25">
-        <v>166.8386421914056</v>
+        <v>163.2422360921312</v>
       </c>
       <c r="H25">
-        <v>1736.878577366959</v>
+        <v>1744.055572662911</v>
       </c>
       <c r="I25">
-        <v>-576.7494000712658</v>
+        <v>-609.7765097613437</v>
       </c>
       <c r="J25">
-        <v>845.3917729240131</v>
+        <v>849.8181507525314</v>
       </c>
       <c r="K25">
-        <v>3208.760074347497</v>
+        <v>3247.351282126367</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.12585457230811</v>
+        <v>58.40283791820906</v>
       </c>
       <c r="G26">
-        <v>184.3357034265446</v>
+        <v>183.6253975684587</v>
       </c>
       <c r="H26">
-        <v>1681.018495375639</v>
+        <v>1768.259131888077</v>
       </c>
       <c r="I26">
-        <v>-520.4958234011837</v>
+        <v>-546.8583952481742</v>
       </c>
       <c r="J26">
-        <v>853.7398202156653</v>
+        <v>866.0917822298636</v>
       </c>
       <c r="K26">
-        <v>3173.323826095397</v>
+        <v>2977.998311191564</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.22193936286339</v>
+        <v>59.11145783649262</v>
       </c>
       <c r="G27">
-        <v>193.3595924557349</v>
+        <v>203.0732342599662</v>
       </c>
       <c r="H27">
-        <v>1786.768749281341</v>
+        <v>1642.633746269758</v>
       </c>
       <c r="I27">
-        <v>-493.58578343788</v>
+        <v>-506.2505878113909</v>
       </c>
       <c r="J27">
-        <v>783.2717981302458</v>
+        <v>789.4373202167942</v>
       </c>
       <c r="K27">
-        <v>2950.642134758312</v>
+        <v>3088.148484200699</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.45473896204961</v>
+        <v>56.27815913920402</v>
       </c>
       <c r="G28">
-        <v>224.2719549139705</v>
+        <v>218.2337549960928</v>
       </c>
       <c r="H28">
-        <v>1647.821520838504</v>
+        <v>1791.299628483148</v>
       </c>
       <c r="I28">
-        <v>-420.7538338644277</v>
+        <v>-436.8665151579317</v>
       </c>
       <c r="J28">
-        <v>758.0402565250757</v>
+        <v>703.3362726485168</v>
       </c>
       <c r="K28">
-        <v>2981.722613470081</v>
+        <v>2848.814555166856</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.61587508501199</v>
+        <v>57.26355232666873</v>
       </c>
       <c r="G29">
-        <v>240.1830894349122</v>
+        <v>226.2885238293575</v>
       </c>
       <c r="H29">
-        <v>1736.644526213819</v>
+        <v>1699.531276956235</v>
       </c>
       <c r="I29">
-        <v>-378.4338323370353</v>
+        <v>-379.4723983316795</v>
       </c>
       <c r="J29">
-        <v>673.1973938717216</v>
+        <v>702.023286155571</v>
       </c>
       <c r="K29">
-        <v>2897.251643313063</v>
+        <v>2769.096043652396</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.31004850198572</v>
+        <v>52.52633968068821</v>
       </c>
       <c r="G30">
-        <v>241.0365237953226</v>
+        <v>237.2298573480199</v>
       </c>
       <c r="H30">
-        <v>1809.131330528201</v>
+        <v>1780.064720975457</v>
       </c>
       <c r="I30">
-        <v>-321.3719724731578</v>
+        <v>-329.1668626255195</v>
       </c>
       <c r="J30">
-        <v>663.3612623012234</v>
+        <v>641.3750886692007</v>
       </c>
       <c r="K30">
-        <v>2694.559532380217</v>
+        <v>2765.074794641539</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.69239022737955</v>
+        <v>54.48306409952126</v>
       </c>
       <c r="G31">
-        <v>272.4002378299003</v>
+        <v>257.2195423791675</v>
       </c>
       <c r="H31">
-        <v>1818.350779925762</v>
+        <v>1843.887591133391</v>
       </c>
       <c r="I31">
-        <v>-265.9868472502574</v>
+        <v>-257.0344221402627</v>
       </c>
       <c r="J31">
-        <v>615.6658687080968</v>
+        <v>570.4761691348351</v>
       </c>
       <c r="K31">
-        <v>2577.499092290525</v>
+        <v>2531.621682136278</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.7191005771648</v>
+        <v>51.16321801554127</v>
       </c>
       <c r="G32">
-        <v>287.691923978306</v>
+        <v>269.5764994390386</v>
       </c>
       <c r="H32">
-        <v>1861.852950588167</v>
+        <v>1857.881322576948</v>
       </c>
       <c r="I32">
-        <v>-204.9757954125503</v>
+        <v>-203.3421882944104</v>
       </c>
       <c r="J32">
-        <v>555.5895399852865</v>
+        <v>545.3666893244877</v>
       </c>
       <c r="K32">
-        <v>2427.955127345622</v>
+        <v>2545.908874741961</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.1312538216934</v>
+        <v>52.25910265069904</v>
       </c>
       <c r="G33">
-        <v>308.5348383369216</v>
+        <v>304.2927352547862</v>
       </c>
       <c r="H33">
-        <v>1859.829895813456</v>
+        <v>1777.904747271173</v>
       </c>
       <c r="I33">
-        <v>-148.5145176455306</v>
+        <v>-140.7943815215107</v>
       </c>
       <c r="J33">
-        <v>498.6852363743718</v>
+        <v>492.8215687604719</v>
       </c>
       <c r="K33">
-        <v>2317.352733773876</v>
+        <v>2376.238281422457</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.19830812479735</v>
+        <v>48.01270779801552</v>
       </c>
       <c r="G34">
-        <v>312.7777118575656</v>
+        <v>318.8700343960131</v>
       </c>
       <c r="H34">
-        <v>1861.328109364503</v>
+        <v>1780.911593871526</v>
       </c>
       <c r="I34">
-        <v>-82.0566307535767</v>
+        <v>-82.11296477276119</v>
       </c>
       <c r="J34">
-        <v>462.8586490654504</v>
+        <v>463.767398979542</v>
       </c>
       <c r="K34">
-        <v>2249.493562715488</v>
+        <v>2233.838288598619</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>45.86151202375984</v>
+        <v>49.45498165807068</v>
       </c>
       <c r="G35">
-        <v>327.1829893301004</v>
+        <v>317.6811055403316</v>
       </c>
       <c r="H35">
-        <v>1834.51087827496</v>
+        <v>1861.919601769593</v>
       </c>
       <c r="I35">
-        <v>-18.33707823637979</v>
+        <v>-18.85174632728084</v>
       </c>
       <c r="J35">
-        <v>411.1545500936349</v>
+        <v>386.9677973626883</v>
       </c>
       <c r="K35">
-        <v>2092.237412964331</v>
+        <v>2050.034953331642</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.0754793413071</v>
+        <v>45.66123181259363</v>
       </c>
       <c r="G36">
-        <v>344.820983412899</v>
+        <v>343.3975495173967</v>
       </c>
       <c r="H36">
-        <v>1800.305760709038</v>
+        <v>1829.29404600321</v>
       </c>
       <c r="I36">
-        <v>47.15634620621375</v>
+        <v>48.26468996383561</v>
       </c>
       <c r="J36">
-        <v>347.6407239522586</v>
+        <v>349.4647138347882</v>
       </c>
       <c r="K36">
-        <v>1782.018389599986</v>
+        <v>1811.714487271402</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.75075981099648</v>
+        <v>44.87269984405287</v>
       </c>
       <c r="G37">
-        <v>344.6528110904016</v>
+        <v>369.2340772974204</v>
       </c>
       <c r="H37">
-        <v>1790.109122939786</v>
+        <v>1861.821542177826</v>
       </c>
       <c r="I37">
-        <v>117.8991897565505</v>
+        <v>116.3255228497414</v>
       </c>
       <c r="J37">
-        <v>286.9344696544021</v>
+        <v>296.5438647291865</v>
       </c>
       <c r="K37">
-        <v>1582.444724495146</v>
+        <v>1662.424763605425</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.74388647165886</v>
+        <v>45.09450078884171</v>
       </c>
       <c r="G38">
-        <v>387.2190204000734</v>
+        <v>377.0543520392852</v>
       </c>
       <c r="H38">
-        <v>1884.205281559141</v>
+        <v>1943.532394219791</v>
       </c>
       <c r="I38">
-        <v>189.8158513641429</v>
+        <v>189.8762575925774</v>
       </c>
       <c r="J38">
-        <v>241.3407107049499</v>
+        <v>249.0111722130844</v>
       </c>
       <c r="K38">
-        <v>1420.446362805013</v>
+        <v>1337.895735200922</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.43097459457398</v>
+        <v>44.89888008451634</v>
       </c>
       <c r="G39">
-        <v>407.9582521403707</v>
+        <v>413.8026564404063</v>
       </c>
       <c r="H39">
-        <v>1820.857968960909</v>
+        <v>1905.242375895282</v>
       </c>
       <c r="I39">
-        <v>244.3954735607718</v>
+        <v>250.0598652861291</v>
       </c>
       <c r="J39">
-        <v>201.7686342096578</v>
+        <v>195.0393272108018</v>
       </c>
       <c r="K39">
-        <v>1163.949331828082</v>
+        <v>1115.894245836131</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.86886517759671</v>
+        <v>44.62765959863493</v>
       </c>
       <c r="G40">
-        <v>399.0876174082378</v>
+        <v>417.2729808137703</v>
       </c>
       <c r="H40">
-        <v>1886.169118075878</v>
+        <v>1941.425692061478</v>
       </c>
       <c r="I40">
-        <v>340.6983566610191</v>
+        <v>334.7356373526695</v>
       </c>
       <c r="J40">
-        <v>149.5373961272339</v>
+        <v>148.5563684279136</v>
       </c>
       <c r="K40">
-        <v>938.952380976872</v>
+        <v>938.7345214556632</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.59745946226051</v>
+        <v>41.93193299325826</v>
       </c>
       <c r="G41">
-        <v>431.8864217767964</v>
+        <v>438.658365704236</v>
       </c>
       <c r="H41">
-        <v>1858.891259670074</v>
+        <v>1943.620701897135</v>
       </c>
       <c r="I41">
-        <v>393.7710006638004</v>
+        <v>392.4355339933451</v>
       </c>
       <c r="J41">
-        <v>100.5917898535678</v>
+        <v>101.8274431599707</v>
       </c>
       <c r="K41">
-        <v>598.3214755117506</v>
+        <v>619.4871512692773</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.69278297826308</v>
+        <v>40.71243927589081</v>
       </c>
       <c r="G42">
-        <v>433.2306410361784</v>
+        <v>444.1177984675738</v>
       </c>
       <c r="H42">
-        <v>1814.162059836915</v>
+        <v>1898.961914340753</v>
       </c>
       <c r="I42">
-        <v>470.3426130461735</v>
+        <v>471.1261904155495</v>
       </c>
       <c r="J42">
-        <v>52.04827616506444</v>
+        <v>54.24835012638397</v>
       </c>
       <c r="K42">
-        <v>345.0127939677299</v>
+        <v>334.8012371416036</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.64128746223886</v>
+        <v>41.6570990142442</v>
       </c>
       <c r="G43">
-        <v>460.6795568440923</v>
+        <v>478.8515871283138</v>
       </c>
       <c r="H43">
-        <v>1890.982240427097</v>
+        <v>1961.599131369361</v>
       </c>
       <c r="I43">
-        <v>583.0502302157057</v>
+        <v>580.3453450501365</v>
       </c>
       <c r="J43">
-        <v>5.19190610584829</v>
+        <v>5.067439249014826</v>
       </c>
       <c r="K43">
-        <v>32.91547600909375</v>
+        <v>35.33244552742575</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.64620241847297</v>
+        <v>40.14835941982358</v>
       </c>
       <c r="G44">
-        <v>455.9977921231932</v>
+        <v>477.1766129801351</v>
       </c>
       <c r="H44">
-        <v>1906.085776446969</v>
+        <v>1862.214763283279</v>
       </c>
       <c r="I44">
-        <v>626.4192453679442</v>
+        <v>665.4661695779557</v>
       </c>
       <c r="J44">
-        <v>-43.8347826449152</v>
+        <v>-44.61487891905963</v>
       </c>
       <c r="K44">
-        <v>-273.688814730906</v>
+        <v>-274.3854328872503</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.18464782621589</v>
+        <v>42.78933963897271</v>
       </c>
       <c r="G45">
-        <v>516.085681743683</v>
+        <v>470.726012543218</v>
       </c>
       <c r="H45">
-        <v>2009.428706479688</v>
+        <v>1975.373750313619</v>
       </c>
       <c r="I45">
-        <v>729.5082545683814</v>
+        <v>728.7724354479977</v>
       </c>
       <c r="J45">
-        <v>-88.44400201404727</v>
+        <v>-91.15871273250536</v>
       </c>
       <c r="K45">
-        <v>-612.079860143902</v>
+        <v>-615.3961889622291</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.77450884298</v>
+        <v>39.07834599443789</v>
       </c>
       <c r="G46">
-        <v>513.9575009266808</v>
+        <v>494.4777933257003</v>
       </c>
       <c r="H46">
-        <v>1995.337158420465</v>
+        <v>1885.248722820122</v>
       </c>
       <c r="I46">
-        <v>828.5581240782743</v>
+        <v>817.1346506603871</v>
       </c>
       <c r="J46">
-        <v>-135.7643994451344</v>
+        <v>-147.0609014708813</v>
       </c>
       <c r="K46">
-        <v>-1000.44508311071</v>
+        <v>-955.8327029486688</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.6067820270609</v>
+        <v>39.91567631772023</v>
       </c>
       <c r="G47">
-        <v>550.8049603070568</v>
+        <v>533.3493537539438</v>
       </c>
       <c r="H47">
-        <v>1935.17809450259</v>
+        <v>1930.675342810724</v>
       </c>
       <c r="I47">
-        <v>870.293308068143</v>
+        <v>927.5862153348877</v>
       </c>
       <c r="J47">
-        <v>-195.4287194780628</v>
+        <v>-188.0316632731355</v>
       </c>
       <c r="K47">
-        <v>-1315.29883810797</v>
+        <v>-1284.347922434342</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.20248235734712</v>
+        <v>37.62578108735347</v>
       </c>
       <c r="G48">
-        <v>555.4234991897443</v>
+        <v>517.9171054398639</v>
       </c>
       <c r="H48">
-        <v>1961.459391783137</v>
+        <v>1971.339377082134</v>
       </c>
       <c r="I48">
-        <v>961.5059091669209</v>
+        <v>969.6164495618799</v>
       </c>
       <c r="J48">
-        <v>-230.3352327208217</v>
+        <v>-245.6568531621887</v>
       </c>
       <c r="K48">
-        <v>-1713.922227984709</v>
+        <v>-1725.032535318491</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.91284869461073</v>
+        <v>38.5926598583406</v>
       </c>
       <c r="G49">
-        <v>532.7972007748106</v>
+        <v>559.0501671820789</v>
       </c>
       <c r="H49">
-        <v>1859.056923320243</v>
+        <v>1904.37224524559</v>
       </c>
       <c r="I49">
-        <v>1089.510941716734</v>
+        <v>1068.392691224366</v>
       </c>
       <c r="J49">
-        <v>-288.3186663902216</v>
+        <v>-276.5313520361241</v>
       </c>
       <c r="K49">
-        <v>-2099.112819716949</v>
+        <v>-2194.789279161546</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.48539046685867</v>
+        <v>38.63111144144604</v>
       </c>
       <c r="G50">
-        <v>581.1737174051204</v>
+        <v>584.1752849292966</v>
       </c>
       <c r="H50">
-        <v>1886.923903395498</v>
+        <v>1907.185600361947</v>
       </c>
       <c r="I50">
-        <v>1107.838785514622</v>
+        <v>1129.835297044149</v>
       </c>
       <c r="J50">
-        <v>-328.1972616728647</v>
+        <v>-329.9862829518482</v>
       </c>
       <c r="K50">
-        <v>-2434.977970928016</v>
+        <v>-2543.501276102363</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.90950821939911</v>
+        <v>38.50935552595426</v>
       </c>
       <c r="G51">
-        <v>623.180803010569</v>
+        <v>577.0468800973507</v>
       </c>
       <c r="H51">
-        <v>2055.127438216323</v>
+        <v>1911.977398091699</v>
       </c>
       <c r="I51">
-        <v>1311.76408099533</v>
+        <v>1283.926389387471</v>
       </c>
       <c r="J51">
-        <v>-377.691091343188</v>
+        <v>-394.3649071739801</v>
       </c>
       <c r="K51">
-        <v>-2830.636047068745</v>
+        <v>-2834.867590838485</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.23162351014972</v>
+        <v>38.3771043669945</v>
       </c>
       <c r="G52">
-        <v>594.3896853034738</v>
+        <v>618.473754139298</v>
       </c>
       <c r="H52">
-        <v>1998.822443912396</v>
+        <v>1964.430309024814</v>
       </c>
       <c r="I52">
-        <v>1379.398258464668</v>
+        <v>1398.02951660889</v>
       </c>
       <c r="J52">
-        <v>-437.7666593281231</v>
+        <v>-430.6981310637678</v>
       </c>
       <c r="K52">
-        <v>-3447.213725665694</v>
+        <v>-3283.487705295727</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.53699629280753</v>
+        <v>36.13923683774961</v>
       </c>
       <c r="G53">
-        <v>599.075513236969</v>
+        <v>628.5915998504137</v>
       </c>
       <c r="H53">
-        <v>1976.831646791464</v>
+        <v>1974.924185143331</v>
       </c>
       <c r="I53">
-        <v>1410.390990031775</v>
+        <v>1522.404996191218</v>
       </c>
       <c r="J53">
-        <v>-500.7894284743439</v>
+        <v>-492.7835561866302</v>
       </c>
       <c r="K53">
-        <v>-3652.357185507517</v>
+        <v>-3981.617488356045</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.10443523331568</v>
+        <v>37.99544790984847</v>
       </c>
       <c r="G54">
-        <v>635.618303790832</v>
+        <v>662.0838884868504</v>
       </c>
       <c r="H54">
-        <v>2045.479380907756</v>
+        <v>1984.070689966659</v>
       </c>
       <c r="I54">
-        <v>1618.651462855765</v>
+        <v>1536.889908712725</v>
       </c>
       <c r="J54">
-        <v>-511.4895616926029</v>
+        <v>-540.2894155918434</v>
       </c>
       <c r="K54">
-        <v>-4258.666444050233</v>
+        <v>-4265.903626085498</v>
       </c>
     </row>
   </sheetData>
